--- a/.idea/treasuryDelta.xlsx
+++ b/.idea/treasuryDelta.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,19 +653,651 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>20071000</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1642285</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1641080</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-1205</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>20071100</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>20071200</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>20071300</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1641080</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1653555</v>
+      </c>
+      <c r="D19" t="n">
+        <v>12475</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>20071400</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1653555</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1627709</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-25846</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20071500</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1627709</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1740455</v>
+      </c>
+      <c r="D21" t="n">
+        <v>112746</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20071600</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1740455</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1807305</v>
+      </c>
+      <c r="D22" t="n">
+        <v>66850</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>20071700</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1807305</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1812801</v>
+      </c>
+      <c r="D23" t="n">
+        <v>5496</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>20071800</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>20071900</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>20072000</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1812801</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1817270</v>
+      </c>
+      <c r="D26" t="n">
+        <v>4469</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>20072100</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1817270</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1794448</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-22822</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>20072200</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1794448</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1777180</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-17268</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>20070900</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1624404</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1642285</v>
+      </c>
+      <c r="D29" t="n">
+        <v>17881</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>20071000</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1642285</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1641080</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-1205</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>20071100</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>20071200</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>20071300</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1641080</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1653555</v>
+      </c>
+      <c r="D33" t="n">
+        <v>12475</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>20071400</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1653555</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1627709</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-25846</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>20071500</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1627709</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1740455</v>
+      </c>
+      <c r="D35" t="n">
+        <v>112746</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>20071600</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1740455</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1807305</v>
+      </c>
+      <c r="D36" t="n">
+        <v>66850</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>20071700</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1807305</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1812801</v>
+      </c>
+      <c r="D37" t="n">
+        <v>5496</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>20071800</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>20071900</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>20072000</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1812801</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1817270</v>
+      </c>
+      <c r="D40" t="n">
+        <v>4469</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>20072100</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1817270</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1794448</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-22822</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>20072200</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1794448</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1777180</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-17268</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>20072300</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1777180</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1821824</v>
+      </c>
+      <c r="D43" t="n">
+        <v>44644</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>20070900</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1624404</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1642285</v>
+      </c>
+      <c r="D44" t="n">
+        <v>17881</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>20071000</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1642285</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1641080</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-1205</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>20071100</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>20071200</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>20071300</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1641080</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1653555</v>
+      </c>
+      <c r="D48" t="n">
+        <v>12475</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>20071400</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1653555</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1627709</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-25846</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>20071500</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1627709</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1740455</v>
+      </c>
+      <c r="D50" t="n">
+        <v>112746</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>20071600</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1740455</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1807305</v>
+      </c>
+      <c r="D51" t="n">
+        <v>66850</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>20071700</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1807305</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1812801</v>
+      </c>
+      <c r="D52" t="n">
+        <v>5496</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>20071800</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>20071900</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>20072000</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1812801</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1817270</v>
+      </c>
+      <c r="D55" t="n">
+        <v>4469</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>20072100</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1817270</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1794448</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-22822</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>20072200</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1794448</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1777180</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-17268</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>20072300</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B58" t="n">
         <v>1777180</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C58" t="n">
         <v>1821824</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D58" t="n">
         <v>44644</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>20072400</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1821824</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1825498</v>
+      </c>
+      <c r="D59" t="n">
+        <v>3674</v>
       </c>
     </row>
   </sheetData>

--- a/.idea/treasuryDelta.xlsx
+++ b/.idea/treasuryDelta.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,6 +680,48 @@
         <v>3674</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>20072500</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>20072600</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>20072700</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1825498</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1830546</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5048</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/.idea/treasuryDelta.xlsx
+++ b/.idea/treasuryDelta.xlsx
@@ -461,13 +461,13 @@
         <v>20070900</v>
       </c>
       <c r="B2" t="n">
-        <v>1624404</v>
+        <v>1624404000000</v>
       </c>
       <c r="C2" t="n">
-        <v>1642285</v>
+        <v>1642285000000</v>
       </c>
       <c r="D2" t="n">
-        <v>17881</v>
+        <v>17881000000</v>
       </c>
     </row>
     <row r="3">
@@ -475,13 +475,13 @@
         <v>20071000</v>
       </c>
       <c r="B3" t="n">
-        <v>1642285</v>
+        <v>1642285000000</v>
       </c>
       <c r="C3" t="n">
-        <v>1641080</v>
+        <v>1641080000000</v>
       </c>
       <c r="D3" t="n">
-        <v>-1205</v>
+        <v>-1205000000</v>
       </c>
     </row>
     <row r="4">
@@ -517,13 +517,13 @@
         <v>20071300</v>
       </c>
       <c r="B6" t="n">
-        <v>1641080</v>
+        <v>1641080000000</v>
       </c>
       <c r="C6" t="n">
-        <v>1653555</v>
+        <v>1653555000000</v>
       </c>
       <c r="D6" t="n">
-        <v>12475</v>
+        <v>12475000000</v>
       </c>
     </row>
     <row r="7">
@@ -531,13 +531,13 @@
         <v>20071400</v>
       </c>
       <c r="B7" t="n">
-        <v>1653555</v>
+        <v>1653555000000</v>
       </c>
       <c r="C7" t="n">
-        <v>1627709</v>
+        <v>1627709000000</v>
       </c>
       <c r="D7" t="n">
-        <v>-25846</v>
+        <v>-25846000000</v>
       </c>
     </row>
     <row r="8">
@@ -545,13 +545,13 @@
         <v>20071500</v>
       </c>
       <c r="B8" t="n">
-        <v>1627709</v>
+        <v>1627709000000</v>
       </c>
       <c r="C8" t="n">
-        <v>1740455</v>
+        <v>1740455000000</v>
       </c>
       <c r="D8" t="n">
-        <v>112746</v>
+        <v>112746000000</v>
       </c>
     </row>
     <row r="9">
@@ -559,13 +559,13 @@
         <v>20071600</v>
       </c>
       <c r="B9" t="n">
-        <v>1740455</v>
+        <v>1740455000000</v>
       </c>
       <c r="C9" t="n">
-        <v>1807305</v>
+        <v>1807305000000</v>
       </c>
       <c r="D9" t="n">
-        <v>66850</v>
+        <v>66850000000</v>
       </c>
     </row>
     <row r="10">
@@ -573,13 +573,13 @@
         <v>20071700</v>
       </c>
       <c r="B10" t="n">
-        <v>1807305</v>
+        <v>1807305000000</v>
       </c>
       <c r="C10" t="n">
-        <v>1812801</v>
+        <v>1812801000000</v>
       </c>
       <c r="D10" t="n">
-        <v>5496</v>
+        <v>5496000000</v>
       </c>
     </row>
     <row r="11">
@@ -615,13 +615,13 @@
         <v>20072000</v>
       </c>
       <c r="B13" t="n">
-        <v>1812801</v>
+        <v>1812801000000</v>
       </c>
       <c r="C13" t="n">
-        <v>1817270</v>
+        <v>1817270000000</v>
       </c>
       <c r="D13" t="n">
-        <v>4469</v>
+        <v>4469000000</v>
       </c>
     </row>
     <row r="14">
@@ -629,13 +629,13 @@
         <v>20072100</v>
       </c>
       <c r="B14" t="n">
-        <v>1817270</v>
+        <v>1817270000000</v>
       </c>
       <c r="C14" t="n">
-        <v>1794448</v>
+        <v>1794448000000</v>
       </c>
       <c r="D14" t="n">
-        <v>-22822</v>
+        <v>-22822000000</v>
       </c>
     </row>
     <row r="15">
@@ -643,13 +643,13 @@
         <v>20072200</v>
       </c>
       <c r="B15" t="n">
-        <v>1794448</v>
+        <v>1794448000000</v>
       </c>
       <c r="C15" t="n">
-        <v>1777180</v>
+        <v>1777180000000</v>
       </c>
       <c r="D15" t="n">
-        <v>-17268</v>
+        <v>-17268000000</v>
       </c>
     </row>
     <row r="16">
@@ -657,13 +657,13 @@
         <v>20072300</v>
       </c>
       <c r="B16" t="n">
-        <v>1777180</v>
+        <v>1777180000000</v>
       </c>
       <c r="C16" t="n">
-        <v>1821824</v>
+        <v>1821824000000</v>
       </c>
       <c r="D16" t="n">
-        <v>44644</v>
+        <v>44644000000</v>
       </c>
     </row>
     <row r="17">
@@ -671,13 +671,13 @@
         <v>20072400</v>
       </c>
       <c r="B17" t="n">
-        <v>1821824</v>
+        <v>1821824000000</v>
       </c>
       <c r="C17" t="n">
-        <v>1825498</v>
+        <v>1825498000000</v>
       </c>
       <c r="D17" t="n">
-        <v>3674</v>
+        <v>3674000000</v>
       </c>
     </row>
     <row r="18">
@@ -713,13 +713,13 @@
         <v>20072700</v>
       </c>
       <c r="B20" t="n">
-        <v>1825498</v>
+        <v>1825498000000</v>
       </c>
       <c r="C20" t="n">
-        <v>1830546</v>
+        <v>1830546000000</v>
       </c>
       <c r="D20" t="n">
-        <v>5048</v>
+        <v>5048000000</v>
       </c>
     </row>
   </sheetData>

--- a/.idea/treasuryDelta.xlsx
+++ b/.idea/treasuryDelta.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,15 +710,127 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
+        <v>20070100</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1722032000000</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1656747000000</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-65285000000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20070200</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1656747000000</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1659147000000</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20070300</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1659147000000</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1661799000000</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2652000000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>20070400</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>20070500</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>20070600</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1661799000000</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1660660000000</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-1139000000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>20070700</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1660660000000</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1642079000000</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-18581000000</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>20070800</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1642079000000</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1624404000000</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-17675000000</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
         <v>20072700</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B28" t="n">
         <v>1825498000000</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C28" t="n">
         <v>1830546000000</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D28" t="n">
         <v>5048000000</v>
       </c>
     </row>

--- a/.idea/treasuryDelta.xlsx
+++ b/.idea/treasuryDelta.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -822,15 +822,463 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
+        <v>20053000</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>20053100</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>20060100</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1449129000000</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1394436000000</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-54693000000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>20060200</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1394436000000</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1455494000000</v>
+      </c>
+      <c r="D31" t="n">
+        <v>61058000000</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>20060300</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1455494000000</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1431462000000</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-24032000000</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>20060400</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1431462000000</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1501733000000</v>
+      </c>
+      <c r="D33" t="n">
+        <v>70271000000</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>20060500</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1501733000000</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1494494000000</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-7239000000</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>20060600</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>20060700</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>20060800</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1494494000000</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1520809000000</v>
+      </c>
+      <c r="D37" t="n">
+        <v>26315000000</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>20060900</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1520809000000</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1535311000000</v>
+      </c>
+      <c r="D38" t="n">
+        <v>14502000000</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>20061000</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1535311000000</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1504569000000</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-30742000000</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>20061100</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1504569000000</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1550414000000</v>
+      </c>
+      <c r="D40" t="n">
+        <v>45845000000</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>20061200</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1550414000000</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1541349000000</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-9065000000</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>20061300</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>20061400</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>20061500</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1541349000000</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1597571000000</v>
+      </c>
+      <c r="D44" t="n">
+        <v>56222000000</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>20061600</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1597571000000</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1588615000000</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-8956000000</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>20061700</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1588615000000</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1565306000000</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-23309000000</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>20061800</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1565306000000</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1634655000000</v>
+      </c>
+      <c r="D47" t="n">
+        <v>69349000000</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>20061900</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1634655000000</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1635527000000</v>
+      </c>
+      <c r="D48" t="n">
+        <v>872000000</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>20062000</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>20062100</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>20062200</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1635527000000</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1626909000000</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-8618000000</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>20062300</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1626909000000</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1612877000000</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-14032000000</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>20062400</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1612877000000</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1586573000000</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-26304000000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>20062500</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1586573000000</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1638128000000</v>
+      </c>
+      <c r="D54" t="n">
+        <v>51555000000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>20062600</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1638128000000</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1647248000000</v>
+      </c>
+      <c r="D55" t="n">
+        <v>9120000000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>20062700</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>20062800</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>20062900</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1647248000000</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1644690000000</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-2558000000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>20063000</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1644690000000</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1722032000000</v>
+      </c>
+      <c r="D59" t="n">
+        <v>77342000000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
         <v>20072700</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B60" t="n">
         <v>1825498000000</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C60" t="n">
         <v>1830546000000</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D60" t="n">
         <v>5048000000</v>
       </c>
     </row>

--- a/.idea/treasuryDelta.xlsx
+++ b/.idea/treasuryDelta.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D363"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1270,15 +1270,4257 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
+        <v>19080100</v>
+      </c>
+      <c r="B60" t="n">
+        <v>176662000000</v>
+      </c>
+      <c r="C60" t="n">
+        <v>117629000000</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-59033000000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>19080200</v>
+      </c>
+      <c r="B61" t="n">
+        <v>117629000000</v>
+      </c>
+      <c r="C61" t="n">
+        <v>133666000000</v>
+      </c>
+      <c r="D61" t="n">
+        <v>16037000000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>19080300</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>19080400</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>19080500</v>
+      </c>
+      <c r="B64" t="n">
+        <v>133666000000</v>
+      </c>
+      <c r="C64" t="n">
+        <v>141111000000</v>
+      </c>
+      <c r="D64" t="n">
+        <v>7445000000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>19080600</v>
+      </c>
+      <c r="B65" t="n">
+        <v>141111000000</v>
+      </c>
+      <c r="C65" t="n">
+        <v>129108000000</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-12003000000</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>19080700</v>
+      </c>
+      <c r="B66" t="n">
+        <v>129108000000</v>
+      </c>
+      <c r="C66" t="n">
+        <v>133077000000</v>
+      </c>
+      <c r="D66" t="n">
+        <v>3969000000</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>19080800</v>
+      </c>
+      <c r="B67" t="n">
+        <v>133077000000</v>
+      </c>
+      <c r="C67" t="n">
+        <v>125667000000</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-7410000000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>19080900</v>
+      </c>
+      <c r="B68" t="n">
+        <v>125667000000</v>
+      </c>
+      <c r="C68" t="n">
+        <v>125213000000</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-454000000</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>19081000</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>19081100</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>19081200</v>
+      </c>
+      <c r="B71" t="n">
+        <v>125213000000</v>
+      </c>
+      <c r="C71" t="n">
+        <v>132745000000</v>
+      </c>
+      <c r="D71" t="n">
+        <v>7532000000</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>19081300</v>
+      </c>
+      <c r="B72" t="n">
+        <v>132745000000</v>
+      </c>
+      <c r="C72" t="n">
+        <v>144667000000</v>
+      </c>
+      <c r="D72" t="n">
+        <v>11922000000</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>19081400</v>
+      </c>
+      <c r="B73" t="n">
+        <v>144667000000</v>
+      </c>
+      <c r="C73" t="n">
+        <v>130981000000</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-13686000000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>19081500</v>
+      </c>
+      <c r="B74" t="n">
+        <v>130981000000</v>
+      </c>
+      <c r="C74" t="n">
+        <v>111766000000</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-19215000000</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>19081600</v>
+      </c>
+      <c r="B75" t="n">
+        <v>111766000000</v>
+      </c>
+      <c r="C75" t="n">
+        <v>120765000000</v>
+      </c>
+      <c r="D75" t="n">
+        <v>8999000000</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>19081700</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>19081800</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>19081900</v>
+      </c>
+      <c r="B78" t="n">
+        <v>120765000000</v>
+      </c>
+      <c r="C78" t="n">
+        <v>128669000000</v>
+      </c>
+      <c r="D78" t="n">
+        <v>7904000000</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>19082000</v>
+      </c>
+      <c r="B79" t="n">
+        <v>128669000000</v>
+      </c>
+      <c r="C79" t="n">
+        <v>145898000000</v>
+      </c>
+      <c r="D79" t="n">
+        <v>17229000000</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>19082100</v>
+      </c>
+      <c r="B80" t="n">
+        <v>145898000000</v>
+      </c>
+      <c r="C80" t="n">
+        <v>131447000000</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-14451000000</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>19082200</v>
+      </c>
+      <c r="B81" t="n">
+        <v>131447000000</v>
+      </c>
+      <c r="C81" t="n">
+        <v>142425000000</v>
+      </c>
+      <c r="D81" t="n">
+        <v>10978000000</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>19082300</v>
+      </c>
+      <c r="B82" t="n">
+        <v>142425000000</v>
+      </c>
+      <c r="C82" t="n">
+        <v>139037000000</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-3388000000</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>19082400</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>19082500</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>19082600</v>
+      </c>
+      <c r="B85" t="n">
+        <v>139037000000</v>
+      </c>
+      <c r="C85" t="n">
+        <v>146691000000</v>
+      </c>
+      <c r="D85" t="n">
+        <v>7654000000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>19082700</v>
+      </c>
+      <c r="B86" t="n">
+        <v>146691000000</v>
+      </c>
+      <c r="C86" t="n">
+        <v>165326000000</v>
+      </c>
+      <c r="D86" t="n">
+        <v>18635000000</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>19082800</v>
+      </c>
+      <c r="B87" t="n">
+        <v>165326000000</v>
+      </c>
+      <c r="C87" t="n">
+        <v>150146000000</v>
+      </c>
+      <c r="D87" t="n">
+        <v>-15180000000</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>19082900</v>
+      </c>
+      <c r="B88" t="n">
+        <v>150146000000</v>
+      </c>
+      <c r="C88" t="n">
+        <v>156856000000</v>
+      </c>
+      <c r="D88" t="n">
+        <v>6710000000</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>19083000</v>
+      </c>
+      <c r="B89" t="n">
+        <v>156856000000</v>
+      </c>
+      <c r="C89" t="n">
+        <v>133091000000</v>
+      </c>
+      <c r="D89" t="n">
+        <v>-23765000000</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>19083100</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>19090100</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>19090200</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>19090300</v>
+      </c>
+      <c r="B93" t="n">
+        <v>133091000000</v>
+      </c>
+      <c r="C93" t="n">
+        <v>177181000000</v>
+      </c>
+      <c r="D93" t="n">
+        <v>44090000000</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>19090400</v>
+      </c>
+      <c r="B94" t="n">
+        <v>177181000000</v>
+      </c>
+      <c r="C94" t="n">
+        <v>174779000000</v>
+      </c>
+      <c r="D94" t="n">
+        <v>-2402000000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>19090500</v>
+      </c>
+      <c r="B95" t="n">
+        <v>174779000000</v>
+      </c>
+      <c r="C95" t="n">
+        <v>184901000000</v>
+      </c>
+      <c r="D95" t="n">
+        <v>10122000000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>19090600</v>
+      </c>
+      <c r="B96" t="n">
+        <v>184901000000</v>
+      </c>
+      <c r="C96" t="n">
+        <v>181508000000</v>
+      </c>
+      <c r="D96" t="n">
+        <v>-3393000000</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>19090700</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>19090800</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>19090900</v>
+      </c>
+      <c r="B99" t="n">
+        <v>181508000000</v>
+      </c>
+      <c r="C99" t="n">
+        <v>190398000000</v>
+      </c>
+      <c r="D99" t="n">
+        <v>8890000000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>19091000</v>
+      </c>
+      <c r="B100" t="n">
+        <v>190398000000</v>
+      </c>
+      <c r="C100" t="n">
+        <v>193989000000</v>
+      </c>
+      <c r="D100" t="n">
+        <v>3591000000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>19091100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>193989000000</v>
+      </c>
+      <c r="C101" t="n">
+        <v>183581000000</v>
+      </c>
+      <c r="D101" t="n">
+        <v>-10408000000</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>19091200</v>
+      </c>
+      <c r="B102" t="n">
+        <v>183581000000</v>
+      </c>
+      <c r="C102" t="n">
+        <v>195302000000</v>
+      </c>
+      <c r="D102" t="n">
+        <v>11721000000</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>19091300</v>
+      </c>
+      <c r="B103" t="n">
+        <v>195302000000</v>
+      </c>
+      <c r="C103" t="n">
+        <v>215579000000</v>
+      </c>
+      <c r="D103" t="n">
+        <v>20277000000</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>19091400</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>19091500</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>19091600</v>
+      </c>
+      <c r="B106" t="n">
+        <v>215579000000</v>
+      </c>
+      <c r="C106" t="n">
+        <v>298755000000</v>
+      </c>
+      <c r="D106" t="n">
+        <v>83176000000</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>19091700</v>
+      </c>
+      <c r="B107" t="n">
+        <v>298755000000</v>
+      </c>
+      <c r="C107" t="n">
+        <v>307731000000</v>
+      </c>
+      <c r="D107" t="n">
+        <v>8976000000</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>19091800</v>
+      </c>
+      <c r="B108" t="n">
+        <v>307731000000</v>
+      </c>
+      <c r="C108" t="n">
+        <v>303057000000</v>
+      </c>
+      <c r="D108" t="n">
+        <v>-4674000000</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>19091900</v>
+      </c>
+      <c r="B109" t="n">
+        <v>303057000000</v>
+      </c>
+      <c r="C109" t="n">
+        <v>313799000000</v>
+      </c>
+      <c r="D109" t="n">
+        <v>10742000000</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>19092000</v>
+      </c>
+      <c r="B110" t="n">
+        <v>313799000000</v>
+      </c>
+      <c r="C110" t="n">
+        <v>310506000000</v>
+      </c>
+      <c r="D110" t="n">
+        <v>-3293000000</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>19092100</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>19092200</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>19092300</v>
+      </c>
+      <c r="B113" t="n">
+        <v>310506000000</v>
+      </c>
+      <c r="C113" t="n">
+        <v>324733000000</v>
+      </c>
+      <c r="D113" t="n">
+        <v>14227000000</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>19092400</v>
+      </c>
+      <c r="B114" t="n">
+        <v>324733000000</v>
+      </c>
+      <c r="C114" t="n">
+        <v>323460000000</v>
+      </c>
+      <c r="D114" t="n">
+        <v>-1273000000</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>19092500</v>
+      </c>
+      <c r="B115" t="n">
+        <v>323460000000</v>
+      </c>
+      <c r="C115" t="n">
+        <v>305810000000</v>
+      </c>
+      <c r="D115" t="n">
+        <v>-17650000000</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>19092600</v>
+      </c>
+      <c r="B116" t="n">
+        <v>305810000000</v>
+      </c>
+      <c r="C116" t="n">
+        <v>309380000000</v>
+      </c>
+      <c r="D116" t="n">
+        <v>3570000000</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>19092700</v>
+      </c>
+      <c r="B117" t="n">
+        <v>309380000000</v>
+      </c>
+      <c r="C117" t="n">
+        <v>330276000000</v>
+      </c>
+      <c r="D117" t="n">
+        <v>20896000000</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>19092800</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>19092900</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>19093000</v>
+      </c>
+      <c r="B120" t="n">
+        <v>330276000000</v>
+      </c>
+      <c r="C120" t="n">
+        <v>382483000000</v>
+      </c>
+      <c r="D120" t="n">
+        <v>52207000000</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>19100100</v>
+      </c>
+      <c r="B121" t="n">
+        <v>382483000000</v>
+      </c>
+      <c r="C121" t="n">
+        <v>328321000000</v>
+      </c>
+      <c r="D121" t="n">
+        <v>-54162000000</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>19100200</v>
+      </c>
+      <c r="B122" t="n">
+        <v>328321000000</v>
+      </c>
+      <c r="C122" t="n">
+        <v>335185000000</v>
+      </c>
+      <c r="D122" t="n">
+        <v>6864000000</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>19100300</v>
+      </c>
+      <c r="B123" t="n">
+        <v>335185000000</v>
+      </c>
+      <c r="C123" t="n">
+        <v>321728000000</v>
+      </c>
+      <c r="D123" t="n">
+        <v>-13457000000</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>19100400</v>
+      </c>
+      <c r="B124" t="n">
+        <v>321728000000</v>
+      </c>
+      <c r="C124" t="n">
+        <v>321687000000</v>
+      </c>
+      <c r="D124" t="n">
+        <v>-41000000</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>19100500</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>19100600</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>19100700</v>
+      </c>
+      <c r="B127" t="n">
+        <v>321687000000</v>
+      </c>
+      <c r="C127" t="n">
+        <v>330055000000</v>
+      </c>
+      <c r="D127" t="n">
+        <v>8368000000</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>19100800</v>
+      </c>
+      <c r="B128" t="n">
+        <v>330055000000</v>
+      </c>
+      <c r="C128" t="n">
+        <v>313105000000</v>
+      </c>
+      <c r="D128" t="n">
+        <v>-16950000000</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>19100900</v>
+      </c>
+      <c r="B129" t="n">
+        <v>313105000000</v>
+      </c>
+      <c r="C129" t="n">
+        <v>297389000000</v>
+      </c>
+      <c r="D129" t="n">
+        <v>-15716000000</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>19101000</v>
+      </c>
+      <c r="B130" t="n">
+        <v>297389000000</v>
+      </c>
+      <c r="C130" t="n">
+        <v>307701000000</v>
+      </c>
+      <c r="D130" t="n">
+        <v>10312000000</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>19101100</v>
+      </c>
+      <c r="B131" t="n">
+        <v>307701000000</v>
+      </c>
+      <c r="C131" t="n">
+        <v>308479000000</v>
+      </c>
+      <c r="D131" t="n">
+        <v>778000000</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>19101200</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>19101300</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>19101400</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>19101500</v>
+      </c>
+      <c r="B135" t="n">
+        <v>308479000000</v>
+      </c>
+      <c r="C135" t="n">
+        <v>369111000000</v>
+      </c>
+      <c r="D135" t="n">
+        <v>60632000000</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>19101600</v>
+      </c>
+      <c r="B136" t="n">
+        <v>369111000000</v>
+      </c>
+      <c r="C136" t="n">
+        <v>361497000000</v>
+      </c>
+      <c r="D136" t="n">
+        <v>-7614000000</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>19101700</v>
+      </c>
+      <c r="B137" t="n">
+        <v>361497000000</v>
+      </c>
+      <c r="C137" t="n">
+        <v>378567000000</v>
+      </c>
+      <c r="D137" t="n">
+        <v>17070000000</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>19101800</v>
+      </c>
+      <c r="B138" t="n">
+        <v>378567000000</v>
+      </c>
+      <c r="C138" t="n">
+        <v>376290000000</v>
+      </c>
+      <c r="D138" t="n">
+        <v>-2277000000</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>19101900</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>19102000</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>19102100</v>
+      </c>
+      <c r="B141" t="n">
+        <v>376290000000</v>
+      </c>
+      <c r="C141" t="n">
+        <v>379070000000</v>
+      </c>
+      <c r="D141" t="n">
+        <v>2780000000</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>19102200</v>
+      </c>
+      <c r="B142" t="n">
+        <v>379070000000</v>
+      </c>
+      <c r="C142" t="n">
+        <v>384216000000</v>
+      </c>
+      <c r="D142" t="n">
+        <v>5146000000</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>19102300</v>
+      </c>
+      <c r="B143" t="n">
+        <v>384216000000</v>
+      </c>
+      <c r="C143" t="n">
+        <v>375170000000</v>
+      </c>
+      <c r="D143" t="n">
+        <v>-9046000000</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>19102400</v>
+      </c>
+      <c r="B144" t="n">
+        <v>375170000000</v>
+      </c>
+      <c r="C144" t="n">
+        <v>382885000000</v>
+      </c>
+      <c r="D144" t="n">
+        <v>7715000000</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>19102500</v>
+      </c>
+      <c r="B145" t="n">
+        <v>382885000000</v>
+      </c>
+      <c r="C145" t="n">
+        <v>383655000000</v>
+      </c>
+      <c r="D145" t="n">
+        <v>770000000</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>19102600</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>19102700</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>19102800</v>
+      </c>
+      <c r="B148" t="n">
+        <v>383655000000</v>
+      </c>
+      <c r="C148" t="n">
+        <v>393739000000</v>
+      </c>
+      <c r="D148" t="n">
+        <v>10084000000</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>19102900</v>
+      </c>
+      <c r="B149" t="n">
+        <v>393739000000</v>
+      </c>
+      <c r="C149" t="n">
+        <v>400905000000</v>
+      </c>
+      <c r="D149" t="n">
+        <v>7166000000</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>19103000</v>
+      </c>
+      <c r="B150" t="n">
+        <v>400905000000</v>
+      </c>
+      <c r="C150" t="n">
+        <v>400616000000</v>
+      </c>
+      <c r="D150" t="n">
+        <v>-289000000</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>19103100</v>
+      </c>
+      <c r="B151" t="n">
+        <v>400616000000</v>
+      </c>
+      <c r="C151" t="n">
+        <v>434942000000</v>
+      </c>
+      <c r="D151" t="n">
+        <v>34326000000</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>19110100</v>
+      </c>
+      <c r="B152" t="n">
+        <v>434942000000</v>
+      </c>
+      <c r="C152" t="n">
+        <v>360775000000</v>
+      </c>
+      <c r="D152" t="n">
+        <v>-74167000000</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>19110200</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>19110300</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>19110400</v>
+      </c>
+      <c r="B155" t="n">
+        <v>360775000000</v>
+      </c>
+      <c r="C155" t="n">
+        <v>370080000000</v>
+      </c>
+      <c r="D155" t="n">
+        <v>9305000000</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>19110500</v>
+      </c>
+      <c r="B156" t="n">
+        <v>370080000000</v>
+      </c>
+      <c r="C156" t="n">
+        <v>373672000000</v>
+      </c>
+      <c r="D156" t="n">
+        <v>3592000000</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>19110600</v>
+      </c>
+      <c r="B157" t="n">
+        <v>373672000000</v>
+      </c>
+      <c r="C157" t="n">
+        <v>378184000000</v>
+      </c>
+      <c r="D157" t="n">
+        <v>4512000000</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>19110700</v>
+      </c>
+      <c r="B158" t="n">
+        <v>378184000000</v>
+      </c>
+      <c r="C158" t="n">
+        <v>382761000000</v>
+      </c>
+      <c r="D158" t="n">
+        <v>4577000000</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>19110800</v>
+      </c>
+      <c r="B159" t="n">
+        <v>382761000000</v>
+      </c>
+      <c r="C159" t="n">
+        <v>381727000000</v>
+      </c>
+      <c r="D159" t="n">
+        <v>-1034000000</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>19110900</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>19111000</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>19111100</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>19111200</v>
+      </c>
+      <c r="B163" t="n">
+        <v>381727000000</v>
+      </c>
+      <c r="C163" t="n">
+        <v>393834000000</v>
+      </c>
+      <c r="D163" t="n">
+        <v>12107000000</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>19111300</v>
+      </c>
+      <c r="B164" t="n">
+        <v>393834000000</v>
+      </c>
+      <c r="C164" t="n">
+        <v>370185000000</v>
+      </c>
+      <c r="D164" t="n">
+        <v>-23649000000</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>19111400</v>
+      </c>
+      <c r="B165" t="n">
+        <v>370185000000</v>
+      </c>
+      <c r="C165" t="n">
+        <v>382896000000</v>
+      </c>
+      <c r="D165" t="n">
+        <v>12711000000</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>19111500</v>
+      </c>
+      <c r="B166" t="n">
+        <v>382896000000</v>
+      </c>
+      <c r="C166" t="n">
+        <v>361698000000</v>
+      </c>
+      <c r="D166" t="n">
+        <v>-21198000000</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>19111600</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>19111700</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>19111800</v>
+      </c>
+      <c r="B169" t="n">
+        <v>361698000000</v>
+      </c>
+      <c r="C169" t="n">
+        <v>380068000000</v>
+      </c>
+      <c r="D169" t="n">
+        <v>18370000000</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>19111900</v>
+      </c>
+      <c r="B170" t="n">
+        <v>380068000000</v>
+      </c>
+      <c r="C170" t="n">
+        <v>376080000000</v>
+      </c>
+      <c r="D170" t="n">
+        <v>-3988000000</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>19112000</v>
+      </c>
+      <c r="B171" t="n">
+        <v>376080000000</v>
+      </c>
+      <c r="C171" t="n">
+        <v>357551000000</v>
+      </c>
+      <c r="D171" t="n">
+        <v>-18529000000</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>19112100</v>
+      </c>
+      <c r="B172" t="n">
+        <v>357551000000</v>
+      </c>
+      <c r="C172" t="n">
+        <v>357980000000</v>
+      </c>
+      <c r="D172" t="n">
+        <v>429000000</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>19112200</v>
+      </c>
+      <c r="B173" t="n">
+        <v>357980000000</v>
+      </c>
+      <c r="C173" t="n">
+        <v>355420000000</v>
+      </c>
+      <c r="D173" t="n">
+        <v>-2560000000</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>19112300</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>19112400</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>19112500</v>
+      </c>
+      <c r="B176" t="n">
+        <v>355420000000</v>
+      </c>
+      <c r="C176" t="n">
+        <v>369284000000</v>
+      </c>
+      <c r="D176" t="n">
+        <v>13864000000</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>19112600</v>
+      </c>
+      <c r="B177" t="n">
+        <v>369284000000</v>
+      </c>
+      <c r="C177" t="n">
+        <v>374167000000</v>
+      </c>
+      <c r="D177" t="n">
+        <v>4883000000</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>19112700</v>
+      </c>
+      <c r="B178" t="n">
+        <v>374167000000</v>
+      </c>
+      <c r="C178" t="n">
+        <v>358896000000</v>
+      </c>
+      <c r="D178" t="n">
+        <v>-15271000000</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>19112800</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>19112900</v>
+      </c>
+      <c r="B180" t="n">
+        <v>358896000000</v>
+      </c>
+      <c r="C180" t="n">
+        <v>342618000000</v>
+      </c>
+      <c r="D180" t="n">
+        <v>-16278000000</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>19113000</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>19120100</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>19120200</v>
+      </c>
+      <c r="B183" t="n">
+        <v>342618000000</v>
+      </c>
+      <c r="C183" t="n">
+        <v>371347000000</v>
+      </c>
+      <c r="D183" t="n">
+        <v>28729000000</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>19120300</v>
+      </c>
+      <c r="B184" t="n">
+        <v>371347000000</v>
+      </c>
+      <c r="C184" t="n">
+        <v>332247000000</v>
+      </c>
+      <c r="D184" t="n">
+        <v>-39100000000</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>19120400</v>
+      </c>
+      <c r="B185" t="n">
+        <v>332247000000</v>
+      </c>
+      <c r="C185" t="n">
+        <v>338453000000</v>
+      </c>
+      <c r="D185" t="n">
+        <v>6206000000</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>19120500</v>
+      </c>
+      <c r="B186" t="n">
+        <v>338453000000</v>
+      </c>
+      <c r="C186" t="n">
+        <v>331250000000</v>
+      </c>
+      <c r="D186" t="n">
+        <v>-7203000000</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>19120600</v>
+      </c>
+      <c r="B187" t="n">
+        <v>331250000000</v>
+      </c>
+      <c r="C187" t="n">
+        <v>331960000000</v>
+      </c>
+      <c r="D187" t="n">
+        <v>710000000</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>19120700</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>19120800</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>19120900</v>
+      </c>
+      <c r="B190" t="n">
+        <v>331960000000</v>
+      </c>
+      <c r="C190" t="n">
+        <v>340756000000</v>
+      </c>
+      <c r="D190" t="n">
+        <v>8796000000</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>19121000</v>
+      </c>
+      <c r="B191" t="n">
+        <v>340756000000</v>
+      </c>
+      <c r="C191" t="n">
+        <v>316010000000</v>
+      </c>
+      <c r="D191" t="n">
+        <v>-24746000000</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>19121100</v>
+      </c>
+      <c r="B192" t="n">
+        <v>316010000000</v>
+      </c>
+      <c r="C192" t="n">
+        <v>304160000000</v>
+      </c>
+      <c r="D192" t="n">
+        <v>-11850000000</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>19121200</v>
+      </c>
+      <c r="B193" t="n">
+        <v>304160000000</v>
+      </c>
+      <c r="C193" t="n">
+        <v>280898000000</v>
+      </c>
+      <c r="D193" t="n">
+        <v>-23262000000</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>19121300</v>
+      </c>
+      <c r="B194" t="n">
+        <v>280898000000</v>
+      </c>
+      <c r="C194" t="n">
+        <v>293216000000</v>
+      </c>
+      <c r="D194" t="n">
+        <v>12318000000</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>19121400</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0</v>
+      </c>
+      <c r="C195" t="n">
+        <v>0</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>19121500</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>19121600</v>
+      </c>
+      <c r="B197" t="n">
+        <v>293216000000</v>
+      </c>
+      <c r="C197" t="n">
+        <v>401451000000</v>
+      </c>
+      <c r="D197" t="n">
+        <v>108235000000</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>19121700</v>
+      </c>
+      <c r="B198" t="n">
+        <v>401451000000</v>
+      </c>
+      <c r="C198" t="n">
+        <v>387575000000</v>
+      </c>
+      <c r="D198" t="n">
+        <v>-13876000000</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>19121800</v>
+      </c>
+      <c r="B199" t="n">
+        <v>387575000000</v>
+      </c>
+      <c r="C199" t="n">
+        <v>378573000000</v>
+      </c>
+      <c r="D199" t="n">
+        <v>-9002000000</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>19121900</v>
+      </c>
+      <c r="B200" t="n">
+        <v>378573000000</v>
+      </c>
+      <c r="C200" t="n">
+        <v>373409000000</v>
+      </c>
+      <c r="D200" t="n">
+        <v>-5164000000</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>19122000</v>
+      </c>
+      <c r="B201" t="n">
+        <v>373409000000</v>
+      </c>
+      <c r="C201" t="n">
+        <v>370111000000</v>
+      </c>
+      <c r="D201" t="n">
+        <v>-3298000000</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>19122100</v>
+      </c>
+      <c r="B202" t="n">
+        <v>0</v>
+      </c>
+      <c r="C202" t="n">
+        <v>0</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>19122200</v>
+      </c>
+      <c r="B203" t="n">
+        <v>0</v>
+      </c>
+      <c r="C203" t="n">
+        <v>0</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>19122300</v>
+      </c>
+      <c r="B204" t="n">
+        <v>370111000000</v>
+      </c>
+      <c r="C204" t="n">
+        <v>387129000000</v>
+      </c>
+      <c r="D204" t="n">
+        <v>17018000000</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>19122400</v>
+      </c>
+      <c r="B205" t="n">
+        <v>387129000000</v>
+      </c>
+      <c r="C205" t="n">
+        <v>351934000000</v>
+      </c>
+      <c r="D205" t="n">
+        <v>-35195000000</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>19122500</v>
+      </c>
+      <c r="B206" t="n">
+        <v>0</v>
+      </c>
+      <c r="C206" t="n">
+        <v>0</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>19122600</v>
+      </c>
+      <c r="B207" t="n">
+        <v>351934000000</v>
+      </c>
+      <c r="C207" t="n">
+        <v>354659000000</v>
+      </c>
+      <c r="D207" t="n">
+        <v>2725000000</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>19122700</v>
+      </c>
+      <c r="B208" t="n">
+        <v>354659000000</v>
+      </c>
+      <c r="C208" t="n">
+        <v>374776000000</v>
+      </c>
+      <c r="D208" t="n">
+        <v>20117000000</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>19122800</v>
+      </c>
+      <c r="B209" t="n">
+        <v>0</v>
+      </c>
+      <c r="C209" t="n">
+        <v>0</v>
+      </c>
+      <c r="D209" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>19122900</v>
+      </c>
+      <c r="B210" t="n">
+        <v>0</v>
+      </c>
+      <c r="C210" t="n">
+        <v>0</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>19123000</v>
+      </c>
+      <c r="B211" t="n">
+        <v>374776000000</v>
+      </c>
+      <c r="C211" t="n">
+        <v>391180000000</v>
+      </c>
+      <c r="D211" t="n">
+        <v>16404000000</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>19123100</v>
+      </c>
+      <c r="B212" t="n">
+        <v>391180000000</v>
+      </c>
+      <c r="C212" t="n">
+        <v>403853000000</v>
+      </c>
+      <c r="D212" t="n">
+        <v>12673000000</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>20010100</v>
+      </c>
+      <c r="B213" t="n">
+        <v>0</v>
+      </c>
+      <c r="C213" t="n">
+        <v>0</v>
+      </c>
+      <c r="D213" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>20010200</v>
+      </c>
+      <c r="B214" t="n">
+        <v>403853000000</v>
+      </c>
+      <c r="C214" t="n">
+        <v>382335000000</v>
+      </c>
+      <c r="D214" t="n">
+        <v>-21518000000</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>20010300</v>
+      </c>
+      <c r="B215" t="n">
+        <v>382335000000</v>
+      </c>
+      <c r="C215" t="n">
+        <v>363919000000</v>
+      </c>
+      <c r="D215" t="n">
+        <v>-18416000000</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>20010400</v>
+      </c>
+      <c r="B216" t="n">
+        <v>0</v>
+      </c>
+      <c r="C216" t="n">
+        <v>0</v>
+      </c>
+      <c r="D216" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>20010500</v>
+      </c>
+      <c r="B217" t="n">
+        <v>0</v>
+      </c>
+      <c r="C217" t="n">
+        <v>0</v>
+      </c>
+      <c r="D217" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>20010600</v>
+      </c>
+      <c r="B218" t="n">
+        <v>363919000000</v>
+      </c>
+      <c r="C218" t="n">
+        <v>378421000000</v>
+      </c>
+      <c r="D218" t="n">
+        <v>14502000000</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>20010700</v>
+      </c>
+      <c r="B219" t="n">
+        <v>378421000000</v>
+      </c>
+      <c r="C219" t="n">
+        <v>365660000000</v>
+      </c>
+      <c r="D219" t="n">
+        <v>-12761000000</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>20010800</v>
+      </c>
+      <c r="B220" t="n">
+        <v>365660000000</v>
+      </c>
+      <c r="C220" t="n">
+        <v>350840000000</v>
+      </c>
+      <c r="D220" t="n">
+        <v>-14820000000</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>20010900</v>
+      </c>
+      <c r="B221" t="n">
+        <v>350840000000</v>
+      </c>
+      <c r="C221" t="n">
+        <v>343421000000</v>
+      </c>
+      <c r="D221" t="n">
+        <v>-7419000000</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>20011000</v>
+      </c>
+      <c r="B222" t="n">
+        <v>343421000000</v>
+      </c>
+      <c r="C222" t="n">
+        <v>342514000000</v>
+      </c>
+      <c r="D222" t="n">
+        <v>-907000000</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>20011100</v>
+      </c>
+      <c r="B223" t="n">
+        <v>0</v>
+      </c>
+      <c r="C223" t="n">
+        <v>0</v>
+      </c>
+      <c r="D223" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>20011200</v>
+      </c>
+      <c r="B224" t="n">
+        <v>0</v>
+      </c>
+      <c r="C224" t="n">
+        <v>0</v>
+      </c>
+      <c r="D224" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>20011300</v>
+      </c>
+      <c r="B225" t="n">
+        <v>342514000000</v>
+      </c>
+      <c r="C225" t="n">
+        <v>357137000000</v>
+      </c>
+      <c r="D225" t="n">
+        <v>14623000000</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>20011400</v>
+      </c>
+      <c r="B226" t="n">
+        <v>357137000000</v>
+      </c>
+      <c r="C226" t="n">
+        <v>348006000000</v>
+      </c>
+      <c r="D226" t="n">
+        <v>-9131000000</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>20011500</v>
+      </c>
+      <c r="B227" t="n">
+        <v>348006000000</v>
+      </c>
+      <c r="C227" t="n">
+        <v>380802000000</v>
+      </c>
+      <c r="D227" t="n">
+        <v>32796000000</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>20011600</v>
+      </c>
+      <c r="B228" t="n">
+        <v>380802000000</v>
+      </c>
+      <c r="C228" t="n">
+        <v>395791000000</v>
+      </c>
+      <c r="D228" t="n">
+        <v>14989000000</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>20011700</v>
+      </c>
+      <c r="B229" t="n">
+        <v>395791000000</v>
+      </c>
+      <c r="C229" t="n">
+        <v>401053000000</v>
+      </c>
+      <c r="D229" t="n">
+        <v>5262000000</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>20011800</v>
+      </c>
+      <c r="B230" t="n">
+        <v>0</v>
+      </c>
+      <c r="C230" t="n">
+        <v>0</v>
+      </c>
+      <c r="D230" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>20011900</v>
+      </c>
+      <c r="B231" t="n">
+        <v>0</v>
+      </c>
+      <c r="C231" t="n">
+        <v>0</v>
+      </c>
+      <c r="D231" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>20012000</v>
+      </c>
+      <c r="B232" t="n">
+        <v>0</v>
+      </c>
+      <c r="C232" t="n">
+        <v>0</v>
+      </c>
+      <c r="D232" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>20012100</v>
+      </c>
+      <c r="B233" t="n">
+        <v>401053000000</v>
+      </c>
+      <c r="C233" t="n">
+        <v>415874000000</v>
+      </c>
+      <c r="D233" t="n">
+        <v>14821000000</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>20012200</v>
+      </c>
+      <c r="B234" t="n">
+        <v>415874000000</v>
+      </c>
+      <c r="C234" t="n">
+        <v>411708000000</v>
+      </c>
+      <c r="D234" t="n">
+        <v>-4166000000</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>20012300</v>
+      </c>
+      <c r="B235" t="n">
+        <v>411708000000</v>
+      </c>
+      <c r="C235" t="n">
+        <v>421339000000</v>
+      </c>
+      <c r="D235" t="n">
+        <v>9631000000</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>20012400</v>
+      </c>
+      <c r="B236" t="n">
+        <v>421339000000</v>
+      </c>
+      <c r="C236" t="n">
+        <v>424554000000</v>
+      </c>
+      <c r="D236" t="n">
+        <v>3215000000</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>20012500</v>
+      </c>
+      <c r="B237" t="n">
+        <v>0</v>
+      </c>
+      <c r="C237" t="n">
+        <v>0</v>
+      </c>
+      <c r="D237" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>20012600</v>
+      </c>
+      <c r="B238" t="n">
+        <v>0</v>
+      </c>
+      <c r="C238" t="n">
+        <v>0</v>
+      </c>
+      <c r="D238" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>20012700</v>
+      </c>
+      <c r="B239" t="n">
+        <v>424554000000</v>
+      </c>
+      <c r="C239" t="n">
+        <v>435639000000</v>
+      </c>
+      <c r="D239" t="n">
+        <v>11085000000</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>20012800</v>
+      </c>
+      <c r="B240" t="n">
+        <v>435639000000</v>
+      </c>
+      <c r="C240" t="n">
+        <v>443253000000</v>
+      </c>
+      <c r="D240" t="n">
+        <v>7614000000</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>20012900</v>
+      </c>
+      <c r="B241" t="n">
+        <v>443253000000</v>
+      </c>
+      <c r="C241" t="n">
+        <v>450537000000</v>
+      </c>
+      <c r="D241" t="n">
+        <v>7284000000</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>20013000</v>
+      </c>
+      <c r="B242" t="n">
+        <v>450537000000</v>
+      </c>
+      <c r="C242" t="n">
+        <v>445933000000</v>
+      </c>
+      <c r="D242" t="n">
+        <v>-4604000000</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>20013100</v>
+      </c>
+      <c r="B243" t="n">
+        <v>445933000000</v>
+      </c>
+      <c r="C243" t="n">
+        <v>403983000000</v>
+      </c>
+      <c r="D243" t="n">
+        <v>-41950000000</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>20020100</v>
+      </c>
+      <c r="B244" t="n">
+        <v>0</v>
+      </c>
+      <c r="C244" t="n">
+        <v>0</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>20020200</v>
+      </c>
+      <c r="B245" t="n">
+        <v>0</v>
+      </c>
+      <c r="C245" t="n">
+        <v>0</v>
+      </c>
+      <c r="D245" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>20020300</v>
+      </c>
+      <c r="B246" t="n">
+        <v>403983000000</v>
+      </c>
+      <c r="C246" t="n">
+        <v>401010000000</v>
+      </c>
+      <c r="D246" t="n">
+        <v>-2973000000</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>20020400</v>
+      </c>
+      <c r="B247" t="n">
+        <v>401010000000</v>
+      </c>
+      <c r="C247" t="n">
+        <v>417779000000</v>
+      </c>
+      <c r="D247" t="n">
+        <v>16769000000</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>20020500</v>
+      </c>
+      <c r="B248" t="n">
+        <v>417779000000</v>
+      </c>
+      <c r="C248" t="n">
+        <v>416585000000</v>
+      </c>
+      <c r="D248" t="n">
+        <v>-1194000000</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>20020600</v>
+      </c>
+      <c r="B249" t="n">
+        <v>416585000000</v>
+      </c>
+      <c r="C249" t="n">
+        <v>410904000000</v>
+      </c>
+      <c r="D249" t="n">
+        <v>-5681000000</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>20020700</v>
+      </c>
+      <c r="B250" t="n">
+        <v>410904000000</v>
+      </c>
+      <c r="C250" t="n">
+        <v>405658000000</v>
+      </c>
+      <c r="D250" t="n">
+        <v>-5246000000</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>20020800</v>
+      </c>
+      <c r="B251" t="n">
+        <v>0</v>
+      </c>
+      <c r="C251" t="n">
+        <v>0</v>
+      </c>
+      <c r="D251" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>20020900</v>
+      </c>
+      <c r="B252" t="n">
+        <v>0</v>
+      </c>
+      <c r="C252" t="n">
+        <v>0</v>
+      </c>
+      <c r="D252" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>20021000</v>
+      </c>
+      <c r="B253" t="n">
+        <v>405658000000</v>
+      </c>
+      <c r="C253" t="n">
+        <v>414251000000</v>
+      </c>
+      <c r="D253" t="n">
+        <v>8593000000</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>20021100</v>
+      </c>
+      <c r="B254" t="n">
+        <v>414251000000</v>
+      </c>
+      <c r="C254" t="n">
+        <v>432191000000</v>
+      </c>
+      <c r="D254" t="n">
+        <v>17940000000</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>20021200</v>
+      </c>
+      <c r="B255" t="n">
+        <v>432191000000</v>
+      </c>
+      <c r="C255" t="n">
+        <v>404341000000</v>
+      </c>
+      <c r="D255" t="n">
+        <v>-27850000000</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>20021300</v>
+      </c>
+      <c r="B256" t="n">
+        <v>404341000000</v>
+      </c>
+      <c r="C256" t="n">
+        <v>425468000000</v>
+      </c>
+      <c r="D256" t="n">
+        <v>21127000000</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>20021400</v>
+      </c>
+      <c r="B257" t="n">
+        <v>425468000000</v>
+      </c>
+      <c r="C257" t="n">
+        <v>427327000000</v>
+      </c>
+      <c r="D257" t="n">
+        <v>1859000000</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>20021500</v>
+      </c>
+      <c r="B258" t="n">
+        <v>0</v>
+      </c>
+      <c r="C258" t="n">
+        <v>0</v>
+      </c>
+      <c r="D258" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>20021600</v>
+      </c>
+      <c r="B259" t="n">
+        <v>0</v>
+      </c>
+      <c r="C259" t="n">
+        <v>0</v>
+      </c>
+      <c r="D259" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>20021700</v>
+      </c>
+      <c r="B260" t="n">
+        <v>0</v>
+      </c>
+      <c r="C260" t="n">
+        <v>0</v>
+      </c>
+      <c r="D260" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>20021800</v>
+      </c>
+      <c r="B261" t="n">
+        <v>427327000000</v>
+      </c>
+      <c r="C261" t="n">
+        <v>445806000000</v>
+      </c>
+      <c r="D261" t="n">
+        <v>18479000000</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>20021900</v>
+      </c>
+      <c r="B262" t="n">
+        <v>445806000000</v>
+      </c>
+      <c r="C262" t="n">
+        <v>421051000000</v>
+      </c>
+      <c r="D262" t="n">
+        <v>-24755000000</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>20022000</v>
+      </c>
+      <c r="B263" t="n">
+        <v>421051000000</v>
+      </c>
+      <c r="C263" t="n">
+        <v>443494000000</v>
+      </c>
+      <c r="D263" t="n">
+        <v>22443000000</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>20022100</v>
+      </c>
+      <c r="B264" t="n">
+        <v>443494000000</v>
+      </c>
+      <c r="C264" t="n">
+        <v>441313000000</v>
+      </c>
+      <c r="D264" t="n">
+        <v>-2181000000</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>20022200</v>
+      </c>
+      <c r="B265" t="n">
+        <v>0</v>
+      </c>
+      <c r="C265" t="n">
+        <v>0</v>
+      </c>
+      <c r="D265" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>20022300</v>
+      </c>
+      <c r="B266" t="n">
+        <v>0</v>
+      </c>
+      <c r="C266" t="n">
+        <v>0</v>
+      </c>
+      <c r="D266" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>20022400</v>
+      </c>
+      <c r="B267" t="n">
+        <v>441313000000</v>
+      </c>
+      <c r="C267" t="n">
+        <v>450799000000</v>
+      </c>
+      <c r="D267" t="n">
+        <v>9486000000</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>20022500</v>
+      </c>
+      <c r="B268" t="n">
+        <v>450799000000</v>
+      </c>
+      <c r="C268" t="n">
+        <v>469710000000</v>
+      </c>
+      <c r="D268" t="n">
+        <v>18911000000</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>20022600</v>
+      </c>
+      <c r="B269" t="n">
+        <v>469710000000</v>
+      </c>
+      <c r="C269" t="n">
+        <v>387615000000</v>
+      </c>
+      <c r="D269" t="n">
+        <v>-82095000000</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>20022700</v>
+      </c>
+      <c r="B270" t="n">
+        <v>387615000000</v>
+      </c>
+      <c r="C270" t="n">
+        <v>378164000000</v>
+      </c>
+      <c r="D270" t="n">
+        <v>-9451000000</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>20022800</v>
+      </c>
+      <c r="B271" t="n">
+        <v>378164000000</v>
+      </c>
+      <c r="C271" t="n">
+        <v>357251000000</v>
+      </c>
+      <c r="D271" t="n">
+        <v>-20913000000</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>20022900</v>
+      </c>
+      <c r="B272" t="n">
+        <v>0</v>
+      </c>
+      <c r="C272" t="n">
+        <v>0</v>
+      </c>
+      <c r="D272" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>20030100</v>
+      </c>
+      <c r="B273" t="n">
+        <v>0</v>
+      </c>
+      <c r="C273" t="n">
+        <v>0</v>
+      </c>
+      <c r="D273" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>20030200</v>
+      </c>
+      <c r="B274" t="n">
+        <v>357251000000</v>
+      </c>
+      <c r="C274" t="n">
+        <v>403798000000</v>
+      </c>
+      <c r="D274" t="n">
+        <v>46547000000</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>20030300</v>
+      </c>
+      <c r="B275" t="n">
+        <v>403798000000</v>
+      </c>
+      <c r="C275" t="n">
+        <v>386591000000</v>
+      </c>
+      <c r="D275" t="n">
+        <v>-17207000000</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>20030400</v>
+      </c>
+      <c r="B276" t="n">
+        <v>386591000000</v>
+      </c>
+      <c r="C276" t="n">
+        <v>381302000000</v>
+      </c>
+      <c r="D276" t="n">
+        <v>-5289000000</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>20030500</v>
+      </c>
+      <c r="B277" t="n">
+        <v>381302000000</v>
+      </c>
+      <c r="C277" t="n">
+        <v>379451000000</v>
+      </c>
+      <c r="D277" t="n">
+        <v>-1851000000</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>20030600</v>
+      </c>
+      <c r="B278" t="n">
+        <v>379451000000</v>
+      </c>
+      <c r="C278" t="n">
+        <v>375464000000</v>
+      </c>
+      <c r="D278" t="n">
+        <v>-3987000000</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>20030700</v>
+      </c>
+      <c r="B279" t="n">
+        <v>0</v>
+      </c>
+      <c r="C279" t="n">
+        <v>0</v>
+      </c>
+      <c r="D279" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>20030800</v>
+      </c>
+      <c r="B280" t="n">
+        <v>0</v>
+      </c>
+      <c r="C280" t="n">
+        <v>0</v>
+      </c>
+      <c r="D280" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>20030900</v>
+      </c>
+      <c r="B281" t="n">
+        <v>375464000000</v>
+      </c>
+      <c r="C281" t="n">
+        <v>390574000000</v>
+      </c>
+      <c r="D281" t="n">
+        <v>15110000000</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>20031000</v>
+      </c>
+      <c r="B282" t="n">
+        <v>390574000000</v>
+      </c>
+      <c r="C282" t="n">
+        <v>395134000000</v>
+      </c>
+      <c r="D282" t="n">
+        <v>4560000000</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>20031100</v>
+      </c>
+      <c r="B283" t="n">
+        <v>395134000000</v>
+      </c>
+      <c r="C283" t="n">
+        <v>372337000000</v>
+      </c>
+      <c r="D283" t="n">
+        <v>-22797000000</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>20031200</v>
+      </c>
+      <c r="B284" t="n">
+        <v>372337000000</v>
+      </c>
+      <c r="C284" t="n">
+        <v>318828000000</v>
+      </c>
+      <c r="D284" t="n">
+        <v>-53509000000</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>20031300</v>
+      </c>
+      <c r="B285" t="n">
+        <v>318828000000</v>
+      </c>
+      <c r="C285" t="n">
+        <v>325866000000</v>
+      </c>
+      <c r="D285" t="n">
+        <v>7038000000</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>20031400</v>
+      </c>
+      <c r="B286" t="n">
+        <v>0</v>
+      </c>
+      <c r="C286" t="n">
+        <v>0</v>
+      </c>
+      <c r="D286" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>20031500</v>
+      </c>
+      <c r="B287" t="n">
+        <v>0</v>
+      </c>
+      <c r="C287" t="n">
+        <v>0</v>
+      </c>
+      <c r="D287" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>20031600</v>
+      </c>
+      <c r="B288" t="n">
+        <v>325866000000</v>
+      </c>
+      <c r="C288" t="n">
+        <v>417801000000</v>
+      </c>
+      <c r="D288" t="n">
+        <v>91935000000</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>20031700</v>
+      </c>
+      <c r="B289" t="n">
+        <v>417801000000</v>
+      </c>
+      <c r="C289" t="n">
+        <v>422448000000</v>
+      </c>
+      <c r="D289" t="n">
+        <v>4647000000</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>20031800</v>
+      </c>
+      <c r="B290" t="n">
+        <v>422448000000</v>
+      </c>
+      <c r="C290" t="n">
+        <v>401354000000</v>
+      </c>
+      <c r="D290" t="n">
+        <v>-21094000000</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>20031900</v>
+      </c>
+      <c r="B291" t="n">
+        <v>401354000000</v>
+      </c>
+      <c r="C291" t="n">
+        <v>392511000000</v>
+      </c>
+      <c r="D291" t="n">
+        <v>-8843000000</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>20032000</v>
+      </c>
+      <c r="B292" t="n">
+        <v>392511000000</v>
+      </c>
+      <c r="C292" t="n">
+        <v>382896000000</v>
+      </c>
+      <c r="D292" t="n">
+        <v>-9615000000</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>20032100</v>
+      </c>
+      <c r="B293" t="n">
+        <v>0</v>
+      </c>
+      <c r="C293" t="n">
+        <v>0</v>
+      </c>
+      <c r="D293" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>20032200</v>
+      </c>
+      <c r="B294" t="n">
+        <v>0</v>
+      </c>
+      <c r="C294" t="n">
+        <v>0</v>
+      </c>
+      <c r="D294" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>20032300</v>
+      </c>
+      <c r="B295" t="n">
+        <v>382896000000</v>
+      </c>
+      <c r="C295" t="n">
+        <v>394910000000</v>
+      </c>
+      <c r="D295" t="n">
+        <v>12014000000</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>20032400</v>
+      </c>
+      <c r="B296" t="n">
+        <v>394910000000</v>
+      </c>
+      <c r="C296" t="n">
+        <v>410766000000</v>
+      </c>
+      <c r="D296" t="n">
+        <v>15856000000</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>20032500</v>
+      </c>
+      <c r="B297" t="n">
+        <v>410766000000</v>
+      </c>
+      <c r="C297" t="n">
+        <v>384890000000</v>
+      </c>
+      <c r="D297" t="n">
+        <v>-25876000000</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>20032600</v>
+      </c>
+      <c r="B298" t="n">
+        <v>384890000000</v>
+      </c>
+      <c r="C298" t="n">
+        <v>382097000000</v>
+      </c>
+      <c r="D298" t="n">
+        <v>-2793000000</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>20032700</v>
+      </c>
+      <c r="B299" t="n">
+        <v>382097000000</v>
+      </c>
+      <c r="C299" t="n">
+        <v>397619000000</v>
+      </c>
+      <c r="D299" t="n">
+        <v>15522000000</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>20032800</v>
+      </c>
+      <c r="B300" t="n">
+        <v>0</v>
+      </c>
+      <c r="C300" t="n">
+        <v>0</v>
+      </c>
+      <c r="D300" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>20032900</v>
+      </c>
+      <c r="B301" t="n">
+        <v>0</v>
+      </c>
+      <c r="C301" t="n">
+        <v>0</v>
+      </c>
+      <c r="D301" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>20033000</v>
+      </c>
+      <c r="B302" t="n">
+        <v>397619000000</v>
+      </c>
+      <c r="C302" t="n">
+        <v>407730000000</v>
+      </c>
+      <c r="D302" t="n">
+        <v>10111000000</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>20033100</v>
+      </c>
+      <c r="B303" t="n">
+        <v>407730000000</v>
+      </c>
+      <c r="C303" t="n">
+        <v>515257000000</v>
+      </c>
+      <c r="D303" t="n">
+        <v>107527000000</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>20040100</v>
+      </c>
+      <c r="B304" t="n">
+        <v>515257000000</v>
+      </c>
+      <c r="C304" t="n">
+        <v>506933000000</v>
+      </c>
+      <c r="D304" t="n">
+        <v>-8324000000</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>20040200</v>
+      </c>
+      <c r="B305" t="n">
+        <v>506933000000</v>
+      </c>
+      <c r="C305" t="n">
+        <v>615537000000</v>
+      </c>
+      <c r="D305" t="n">
+        <v>108604000000</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>20040300</v>
+      </c>
+      <c r="B306" t="n">
+        <v>615537000000</v>
+      </c>
+      <c r="C306" t="n">
+        <v>673488000000</v>
+      </c>
+      <c r="D306" t="n">
+        <v>57951000000</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>20040400</v>
+      </c>
+      <c r="B307" t="n">
+        <v>0</v>
+      </c>
+      <c r="C307" t="n">
+        <v>0</v>
+      </c>
+      <c r="D307" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>20040500</v>
+      </c>
+      <c r="B308" t="n">
+        <v>0</v>
+      </c>
+      <c r="C308" t="n">
+        <v>0</v>
+      </c>
+      <c r="D308" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>20040600</v>
+      </c>
+      <c r="B309" t="n">
+        <v>673488000000</v>
+      </c>
+      <c r="C309" t="n">
+        <v>676457000000</v>
+      </c>
+      <c r="D309" t="n">
+        <v>2969000000</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>20040700</v>
+      </c>
+      <c r="B310" t="n">
+        <v>676457000000</v>
+      </c>
+      <c r="C310" t="n">
+        <v>750414000000</v>
+      </c>
+      <c r="D310" t="n">
+        <v>73957000000</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>20040800</v>
+      </c>
+      <c r="B311" t="n">
+        <v>750414000000</v>
+      </c>
+      <c r="C311" t="n">
+        <v>827178000000</v>
+      </c>
+      <c r="D311" t="n">
+        <v>76764000000</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>20040900</v>
+      </c>
+      <c r="B312" t="n">
+        <v>827178000000</v>
+      </c>
+      <c r="C312" t="n">
+        <v>898910000000</v>
+      </c>
+      <c r="D312" t="n">
+        <v>71732000000</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>20041000</v>
+      </c>
+      <c r="B313" t="n">
+        <v>898910000000</v>
+      </c>
+      <c r="C313" t="n">
+        <v>881941000000</v>
+      </c>
+      <c r="D313" t="n">
+        <v>-16969000000</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>20041100</v>
+      </c>
+      <c r="B314" t="n">
+        <v>0</v>
+      </c>
+      <c r="C314" t="n">
+        <v>0</v>
+      </c>
+      <c r="D314" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>20041200</v>
+      </c>
+      <c r="B315" t="n">
+        <v>0</v>
+      </c>
+      <c r="C315" t="n">
+        <v>0</v>
+      </c>
+      <c r="D315" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>20041300</v>
+      </c>
+      <c r="B316" t="n">
+        <v>881941000000</v>
+      </c>
+      <c r="C316" t="n">
+        <v>868878000000</v>
+      </c>
+      <c r="D316" t="n">
+        <v>-13063000000</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>20041400</v>
+      </c>
+      <c r="B317" t="n">
+        <v>868878000000</v>
+      </c>
+      <c r="C317" t="n">
+        <v>958940000000</v>
+      </c>
+      <c r="D317" t="n">
+        <v>90062000000</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>20041500</v>
+      </c>
+      <c r="B318" t="n">
+        <v>958940000000</v>
+      </c>
+      <c r="C318" t="n">
+        <v>856155000000</v>
+      </c>
+      <c r="D318" t="n">
+        <v>-102785000000</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>20041600</v>
+      </c>
+      <c r="B319" t="n">
+        <v>856155000000</v>
+      </c>
+      <c r="C319" t="n">
+        <v>909739000000</v>
+      </c>
+      <c r="D319" t="n">
+        <v>53584000000</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>20041700</v>
+      </c>
+      <c r="B320" t="n">
+        <v>909739000000</v>
+      </c>
+      <c r="C320" t="n">
+        <v>889042000000</v>
+      </c>
+      <c r="D320" t="n">
+        <v>-20697000000</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>20041800</v>
+      </c>
+      <c r="B321" t="n">
+        <v>0</v>
+      </c>
+      <c r="C321" t="n">
+        <v>0</v>
+      </c>
+      <c r="D321" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>20041900</v>
+      </c>
+      <c r="B322" t="n">
+        <v>0</v>
+      </c>
+      <c r="C322" t="n">
+        <v>0</v>
+      </c>
+      <c r="D322" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>20042000</v>
+      </c>
+      <c r="B323" t="n">
+        <v>889042000000</v>
+      </c>
+      <c r="C323" t="n">
+        <v>857911000000</v>
+      </c>
+      <c r="D323" t="n">
+        <v>-31131000000</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>20042100</v>
+      </c>
+      <c r="B324" t="n">
+        <v>857911000000</v>
+      </c>
+      <c r="C324" t="n">
+        <v>924544000000</v>
+      </c>
+      <c r="D324" t="n">
+        <v>66633000000</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>20042200</v>
+      </c>
+      <c r="B325" t="n">
+        <v>924544000000</v>
+      </c>
+      <c r="C325" t="n">
+        <v>949999000000</v>
+      </c>
+      <c r="D325" t="n">
+        <v>25455000000</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>20042300</v>
+      </c>
+      <c r="B326" t="n">
+        <v>949999000000</v>
+      </c>
+      <c r="C326" t="n">
+        <v>1006551000000</v>
+      </c>
+      <c r="D326" t="n">
+        <v>56552000000</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>20042400</v>
+      </c>
+      <c r="B327" t="n">
+        <v>1006551000000</v>
+      </c>
+      <c r="C327" t="n">
+        <v>965931000000</v>
+      </c>
+      <c r="D327" t="n">
+        <v>-40620000000</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>20042500</v>
+      </c>
+      <c r="B328" t="n">
+        <v>0</v>
+      </c>
+      <c r="C328" t="n">
+        <v>0</v>
+      </c>
+      <c r="D328" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>20042600</v>
+      </c>
+      <c r="B329" t="n">
+        <v>0</v>
+      </c>
+      <c r="C329" t="n">
+        <v>0</v>
+      </c>
+      <c r="D329" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>20042700</v>
+      </c>
+      <c r="B330" t="n">
+        <v>965931000000</v>
+      </c>
+      <c r="C330" t="n">
+        <v>961804000000</v>
+      </c>
+      <c r="D330" t="n">
+        <v>-4127000000</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>20042800</v>
+      </c>
+      <c r="B331" t="n">
+        <v>961804000000</v>
+      </c>
+      <c r="C331" t="n">
+        <v>1040169000000</v>
+      </c>
+      <c r="D331" t="n">
+        <v>78365000000</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>20042900</v>
+      </c>
+      <c r="B332" t="n">
+        <v>1040169000000</v>
+      </c>
+      <c r="C332" t="n">
+        <v>1076232000000</v>
+      </c>
+      <c r="D332" t="n">
+        <v>36063000000</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>20043000</v>
+      </c>
+      <c r="B333" t="n">
+        <v>1076232000000</v>
+      </c>
+      <c r="C333" t="n">
+        <v>1180035000000</v>
+      </c>
+      <c r="D333" t="n">
+        <v>103803000000</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>20050100</v>
+      </c>
+      <c r="B334" t="n">
+        <v>1180035000000</v>
+      </c>
+      <c r="C334" t="n">
+        <v>1100958000000</v>
+      </c>
+      <c r="D334" t="n">
+        <v>-79077000000</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>20050200</v>
+      </c>
+      <c r="B335" t="n">
+        <v>0</v>
+      </c>
+      <c r="C335" t="n">
+        <v>0</v>
+      </c>
+      <c r="D335" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>20050300</v>
+      </c>
+      <c r="B336" t="n">
+        <v>0</v>
+      </c>
+      <c r="C336" t="n">
+        <v>0</v>
+      </c>
+      <c r="D336" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>20050400</v>
+      </c>
+      <c r="B337" t="n">
+        <v>1100958000000</v>
+      </c>
+      <c r="C337" t="n">
+        <v>1099175000000</v>
+      </c>
+      <c r="D337" t="n">
+        <v>-1783000000</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>20050500</v>
+      </c>
+      <c r="B338" t="n">
+        <v>1099175000000</v>
+      </c>
+      <c r="C338" t="n">
+        <v>1167077000000</v>
+      </c>
+      <c r="D338" t="n">
+        <v>67902000000</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>20050600</v>
+      </c>
+      <c r="B339" t="n">
+        <v>1167077000000</v>
+      </c>
+      <c r="C339" t="n">
+        <v>1143268000000</v>
+      </c>
+      <c r="D339" t="n">
+        <v>-23809000000</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>20050700</v>
+      </c>
+      <c r="B340" t="n">
+        <v>1143268000000</v>
+      </c>
+      <c r="C340" t="n">
+        <v>1198455000000</v>
+      </c>
+      <c r="D340" t="n">
+        <v>55187000000</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>20050800</v>
+      </c>
+      <c r="B341" t="n">
+        <v>1198455000000</v>
+      </c>
+      <c r="C341" t="n">
+        <v>1193614000000</v>
+      </c>
+      <c r="D341" t="n">
+        <v>-4841000000</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>20050900</v>
+      </c>
+      <c r="B342" t="n">
+        <v>0</v>
+      </c>
+      <c r="C342" t="n">
+        <v>0</v>
+      </c>
+      <c r="D342" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>20051000</v>
+      </c>
+      <c r="B343" t="n">
+        <v>0</v>
+      </c>
+      <c r="C343" t="n">
+        <v>0</v>
+      </c>
+      <c r="D343" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>20051100</v>
+      </c>
+      <c r="B344" t="n">
+        <v>1193614000000</v>
+      </c>
+      <c r="C344" t="n">
+        <v>1151999000000</v>
+      </c>
+      <c r="D344" t="n">
+        <v>-41615000000</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>20051200</v>
+      </c>
+      <c r="B345" t="n">
+        <v>1151999000000</v>
+      </c>
+      <c r="C345" t="n">
+        <v>1172993000000</v>
+      </c>
+      <c r="D345" t="n">
+        <v>20994000000</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>20051300</v>
+      </c>
+      <c r="B346" t="n">
+        <v>1172993000000</v>
+      </c>
+      <c r="C346" t="n">
+        <v>1138172000000</v>
+      </c>
+      <c r="D346" t="n">
+        <v>-34821000000</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>20051400</v>
+      </c>
+      <c r="B347" t="n">
+        <v>1138172000000</v>
+      </c>
+      <c r="C347" t="n">
+        <v>1206011000000</v>
+      </c>
+      <c r="D347" t="n">
+        <v>67839000000</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>20051500</v>
+      </c>
+      <c r="B348" t="n">
+        <v>1206011000000</v>
+      </c>
+      <c r="C348" t="n">
+        <v>1185006000000</v>
+      </c>
+      <c r="D348" t="n">
+        <v>-21005000000</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>20051600</v>
+      </c>
+      <c r="B349" t="n">
+        <v>0</v>
+      </c>
+      <c r="C349" t="n">
+        <v>0</v>
+      </c>
+      <c r="D349" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>20051700</v>
+      </c>
+      <c r="B350" t="n">
+        <v>0</v>
+      </c>
+      <c r="C350" t="n">
+        <v>0</v>
+      </c>
+      <c r="D350" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>20051800</v>
+      </c>
+      <c r="B351" t="n">
+        <v>1185006000000</v>
+      </c>
+      <c r="C351" t="n">
+        <v>1188332000000</v>
+      </c>
+      <c r="D351" t="n">
+        <v>3326000000</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>20051900</v>
+      </c>
+      <c r="B352" t="n">
+        <v>1188332000000</v>
+      </c>
+      <c r="C352" t="n">
+        <v>1218209000000</v>
+      </c>
+      <c r="D352" t="n">
+        <v>29877000000</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>20052000</v>
+      </c>
+      <c r="B353" t="n">
+        <v>1218209000000</v>
+      </c>
+      <c r="C353" t="n">
+        <v>1193297000000</v>
+      </c>
+      <c r="D353" t="n">
+        <v>-24912000000</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>20052100</v>
+      </c>
+      <c r="B354" t="n">
+        <v>1193297000000</v>
+      </c>
+      <c r="C354" t="n">
+        <v>1270885000000</v>
+      </c>
+      <c r="D354" t="n">
+        <v>77588000000</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>20052200</v>
+      </c>
+      <c r="B355" t="n">
+        <v>1270885000000</v>
+      </c>
+      <c r="C355" t="n">
+        <v>1302819000000</v>
+      </c>
+      <c r="D355" t="n">
+        <v>31934000000</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>20052300</v>
+      </c>
+      <c r="B356" t="n">
+        <v>0</v>
+      </c>
+      <c r="C356" t="n">
+        <v>0</v>
+      </c>
+      <c r="D356" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>20052400</v>
+      </c>
+      <c r="B357" t="n">
+        <v>0</v>
+      </c>
+      <c r="C357" t="n">
+        <v>0</v>
+      </c>
+      <c r="D357" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>20052500</v>
+      </c>
+      <c r="B358" t="n">
+        <v>0</v>
+      </c>
+      <c r="C358" t="n">
+        <v>0</v>
+      </c>
+      <c r="D358" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>20052600</v>
+      </c>
+      <c r="B359" t="n">
+        <v>1302819000000</v>
+      </c>
+      <c r="C359" t="n">
+        <v>1364378000000</v>
+      </c>
+      <c r="D359" t="n">
+        <v>61559000000</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>20052700</v>
+      </c>
+      <c r="B360" t="n">
+        <v>1364378000000</v>
+      </c>
+      <c r="C360" t="n">
+        <v>1326897000000</v>
+      </c>
+      <c r="D360" t="n">
+        <v>-37481000000</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>20052800</v>
+      </c>
+      <c r="B361" t="n">
+        <v>1326897000000</v>
+      </c>
+      <c r="C361" t="n">
+        <v>1414981000000</v>
+      </c>
+      <c r="D361" t="n">
+        <v>88084000000</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>20052900</v>
+      </c>
+      <c r="B362" t="n">
+        <v>1414981000000</v>
+      </c>
+      <c r="C362" t="n">
+        <v>1449129000000</v>
+      </c>
+      <c r="D362" t="n">
+        <v>34148000000</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
         <v>20072700</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B363" t="n">
         <v>1825498000000</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C363" t="n">
         <v>1830546000000</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D363" t="n">
         <v>5048000000</v>
       </c>
     </row>

--- a/.idea/treasuryDelta.xlsx
+++ b/.idea/treasuryDelta.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D363"/>
+  <dimension ref="A1:D366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5524,6 +5524,48 @@
         <v>5048000000</v>
       </c>
     </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>20072800</v>
+      </c>
+      <c r="B364" t="n">
+        <v>1830546000000</v>
+      </c>
+      <c r="C364" t="n">
+        <v>1795511000000</v>
+      </c>
+      <c r="D364" t="n">
+        <v>-35035000000</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>20072900</v>
+      </c>
+      <c r="B365" t="n">
+        <v>1795511000000</v>
+      </c>
+      <c r="C365" t="n">
+        <v>1792434000000</v>
+      </c>
+      <c r="D365" t="n">
+        <v>-3077000000</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>20073000</v>
+      </c>
+      <c r="B366" t="n">
+        <v>1792434000000</v>
+      </c>
+      <c r="C366" t="n">
+        <v>1767341000000</v>
+      </c>
+      <c r="D366" t="n">
+        <v>-25093000000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/.idea/treasuryDelta.xlsx
+++ b/.idea/treasuryDelta.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D366"/>
+  <dimension ref="A1:D367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5566,6 +5566,20 @@
         <v>-25093000000</v>
       </c>
     </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>20073100</v>
+      </c>
+      <c r="B367" t="n">
+        <v>1767341000000</v>
+      </c>
+      <c r="C367" t="n">
+        <v>1763090000000</v>
+      </c>
+      <c r="D367" t="n">
+        <v>-4251000000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/.idea/treasuryDelta.xlsx
+++ b/.idea/treasuryDelta.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D367"/>
+  <dimension ref="A1:D370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5580,6 +5580,48 @@
         <v>-4251000000</v>
       </c>
     </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>20080100</v>
+      </c>
+      <c r="B368" t="n">
+        <v>0</v>
+      </c>
+      <c r="C368" t="n">
+        <v>0</v>
+      </c>
+      <c r="D368" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>20080200</v>
+      </c>
+      <c r="B369" t="n">
+        <v>0</v>
+      </c>
+      <c r="C369" t="n">
+        <v>0</v>
+      </c>
+      <c r="D369" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>20080300</v>
+      </c>
+      <c r="B370" t="n">
+        <v>1763090000000</v>
+      </c>
+      <c r="C370" t="n">
+        <v>1745136000000</v>
+      </c>
+      <c r="D370" t="n">
+        <v>-17954000000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/.idea/treasuryDelta.xlsx
+++ b/.idea/treasuryDelta.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D370"/>
+  <dimension ref="A1:D371"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5622,6 +5622,20 @@
         <v>-17954000000</v>
       </c>
     </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>20080400</v>
+      </c>
+      <c r="B371" t="n">
+        <v>1745136000000</v>
+      </c>
+      <c r="C371" t="n">
+        <v>1708214000000</v>
+      </c>
+      <c r="D371" t="n">
+        <v>-36922000000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/.idea/treasuryDelta.xlsx
+++ b/.idea/treasuryDelta.xlsx
@@ -5627,13 +5627,13 @@
         <v>20080400</v>
       </c>
       <c r="B371" t="n">
-        <v>1745136000000</v>
+        <v>0</v>
       </c>
       <c r="C371" t="n">
-        <v>1708214000000</v>
+        <v>0</v>
       </c>
       <c r="D371" t="n">
-        <v>-36922000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/.idea/treasuryDelta.xlsx
+++ b/.idea/treasuryDelta.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D371"/>
+  <dimension ref="A1:D372"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5636,6 +5636,20 @@
         <v>0</v>
       </c>
     </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>20080500</v>
+      </c>
+      <c r="B372" t="n">
+        <v>1708214000000</v>
+      </c>
+      <c r="C372" t="n">
+        <v>1706637000000</v>
+      </c>
+      <c r="D372" t="n">
+        <v>-1577000000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/.idea/treasuryDelta.xlsx
+++ b/.idea/treasuryDelta.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D372"/>
+  <dimension ref="A1:D373"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5650,6 +5650,20 @@
         <v>-1577000000</v>
       </c>
     </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>20080600</v>
+      </c>
+      <c r="B373" t="n">
+        <v>1706637000000</v>
+      </c>
+      <c r="C373" t="n">
+        <v>1687233000000</v>
+      </c>
+      <c r="D373" t="n">
+        <v>-19404000000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/.idea/treasuryDelta.xlsx
+++ b/.idea/treasuryDelta.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D373"/>
+  <dimension ref="A1:D379"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5664,6 +5664,90 @@
         <v>-19404000000</v>
       </c>
     </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>20080700</v>
+      </c>
+      <c r="B374" t="n">
+        <v>1687233000000</v>
+      </c>
+      <c r="C374" t="n">
+        <v>1678144000000</v>
+      </c>
+      <c r="D374" t="n">
+        <v>-9089000000</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>20080800</v>
+      </c>
+      <c r="B375" t="n">
+        <v>0</v>
+      </c>
+      <c r="C375" t="n">
+        <v>0</v>
+      </c>
+      <c r="D375" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>20080900</v>
+      </c>
+      <c r="B376" t="n">
+        <v>0</v>
+      </c>
+      <c r="C376" t="n">
+        <v>0</v>
+      </c>
+      <c r="D376" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>20081000</v>
+      </c>
+      <c r="B377" t="n">
+        <v>1678144000000</v>
+      </c>
+      <c r="C377" t="n">
+        <v>1676455000000</v>
+      </c>
+      <c r="D377" t="n">
+        <v>-1689000000</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>20081100</v>
+      </c>
+      <c r="B378" t="n">
+        <v>1676455000000</v>
+      </c>
+      <c r="C378" t="n">
+        <v>1654869000000</v>
+      </c>
+      <c r="D378" t="n">
+        <v>-21586000000</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>20081200</v>
+      </c>
+      <c r="B379" t="n">
+        <v>1654869000000</v>
+      </c>
+      <c r="C379" t="n">
+        <v>1635143000000</v>
+      </c>
+      <c r="D379" t="n">
+        <v>-19726000000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/.idea/treasuryDelta.xlsx
+++ b/.idea/treasuryDelta.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D379"/>
+  <dimension ref="A1:D380"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5624,63 +5624,63 @@
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>20080400</v>
+        <v>20080500</v>
       </c>
       <c r="B371" t="n">
-        <v>0</v>
+        <v>1708214000000</v>
       </c>
       <c r="C371" t="n">
-        <v>0</v>
+        <v>1706637000000</v>
       </c>
       <c r="D371" t="n">
-        <v>0</v>
+        <v>-1577000000</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>20080500</v>
+        <v>20080600</v>
       </c>
       <c r="B372" t="n">
-        <v>1708214000000</v>
+        <v>1706637000000</v>
       </c>
       <c r="C372" t="n">
-        <v>1706637000000</v>
+        <v>1687233000000</v>
       </c>
       <c r="D372" t="n">
-        <v>-1577000000</v>
+        <v>-19404000000</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>20080600</v>
+        <v>20080700</v>
       </c>
       <c r="B373" t="n">
-        <v>1706637000000</v>
+        <v>1687233000000</v>
       </c>
       <c r="C373" t="n">
-        <v>1687233000000</v>
+        <v>1678144000000</v>
       </c>
       <c r="D373" t="n">
-        <v>-19404000000</v>
+        <v>-9089000000</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>20080700</v>
+        <v>20080800</v>
       </c>
       <c r="B374" t="n">
-        <v>1687233000000</v>
+        <v>0</v>
       </c>
       <c r="C374" t="n">
-        <v>1678144000000</v>
+        <v>0</v>
       </c>
       <c r="D374" t="n">
-        <v>-9089000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>20080800</v>
+        <v>20080900</v>
       </c>
       <c r="B375" t="n">
         <v>0</v>
@@ -5694,58 +5694,72 @@
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>20080900</v>
+        <v>20081000</v>
       </c>
       <c r="B376" t="n">
-        <v>0</v>
+        <v>1678144000000</v>
       </c>
       <c r="C376" t="n">
-        <v>0</v>
+        <v>1676455000000</v>
       </c>
       <c r="D376" t="n">
-        <v>0</v>
+        <v>-1689000000</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>20081000</v>
+        <v>20081200</v>
       </c>
       <c r="B377" t="n">
-        <v>1678144000000</v>
+        <v>1654869000000</v>
       </c>
       <c r="C377" t="n">
-        <v>1676455000000</v>
+        <v>1635143000000</v>
       </c>
       <c r="D377" t="n">
-        <v>-1689000000</v>
+        <v>-19726000000</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>20081100</v>
+        <v>20080400</v>
       </c>
       <c r="B378" t="n">
-        <v>1676455000000</v>
+        <v>1745136000000</v>
       </c>
       <c r="C378" t="n">
-        <v>1654869000000</v>
+        <v>1708214000000</v>
       </c>
       <c r="D378" t="n">
-        <v>-21586000000</v>
+        <v>-36922000000</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>20081200</v>
+        <v>20081100</v>
       </c>
       <c r="B379" t="n">
+        <v>1676455000000</v>
+      </c>
+      <c r="C379" t="n">
         <v>1654869000000</v>
       </c>
-      <c r="C379" t="n">
+      <c r="D379" t="n">
+        <v>-21586000000</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>20081300</v>
+      </c>
+      <c r="B380" t="n">
         <v>1635143000000</v>
       </c>
-      <c r="D379" t="n">
-        <v>-19726000000</v>
+      <c r="C380" t="n">
+        <v>1641133000000</v>
+      </c>
+      <c r="D380" t="n">
+        <v>5990000000</v>
       </c>
     </row>
   </sheetData>

--- a/.idea/treasuryDelta.xlsx
+++ b/.idea/treasuryDelta.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D380"/>
+  <dimension ref="A1:D386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5762,6 +5762,90 @@
         <v>5990000000</v>
       </c>
     </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>20081400</v>
+      </c>
+      <c r="B381" t="n">
+        <v>1641133000000</v>
+      </c>
+      <c r="C381" t="n">
+        <v>1635886000000</v>
+      </c>
+      <c r="D381" t="n">
+        <v>-5247000000</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>20081500</v>
+      </c>
+      <c r="B382" t="n">
+        <v>0</v>
+      </c>
+      <c r="C382" t="n">
+        <v>0</v>
+      </c>
+      <c r="D382" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>20081600</v>
+      </c>
+      <c r="B383" t="n">
+        <v>0</v>
+      </c>
+      <c r="C383" t="n">
+        <v>0</v>
+      </c>
+      <c r="D383" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>20081700</v>
+      </c>
+      <c r="B384" t="n">
+        <v>1635886000000</v>
+      </c>
+      <c r="C384" t="n">
+        <v>1663881000000</v>
+      </c>
+      <c r="D384" t="n">
+        <v>27995000000</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>20081800</v>
+      </c>
+      <c r="B385" t="n">
+        <v>1663881000000</v>
+      </c>
+      <c r="C385" t="n">
+        <v>1655467000000</v>
+      </c>
+      <c r="D385" t="n">
+        <v>-8414000000</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>20081900</v>
+      </c>
+      <c r="B386" t="n">
+        <v>1655467000000</v>
+      </c>
+      <c r="C386" t="n">
+        <v>1636393000000</v>
+      </c>
+      <c r="D386" t="n">
+        <v>-19074000000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/.idea/treasuryDelta.xlsx
+++ b/.idea/treasuryDelta.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D386"/>
+  <dimension ref="A1:D387"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5846,6 +5846,20 @@
         <v>-19074000000</v>
       </c>
     </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>20082000</v>
+      </c>
+      <c r="B387" t="n">
+        <v>1636393000000</v>
+      </c>
+      <c r="C387" t="n">
+        <v>1630312000000</v>
+      </c>
+      <c r="D387" t="n">
+        <v>-6081000000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/.idea/treasuryDelta.xlsx
+++ b/.idea/treasuryDelta.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D387"/>
+  <dimension ref="A1:D391"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5860,6 +5860,62 @@
         <v>-6081000000</v>
       </c>
     </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>20082100</v>
+      </c>
+      <c r="B388" t="n">
+        <v>1630312000000</v>
+      </c>
+      <c r="C388" t="n">
+        <v>1621385000000</v>
+      </c>
+      <c r="D388" t="n">
+        <v>-8927000000</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>20082200</v>
+      </c>
+      <c r="B389" t="n">
+        <v>0</v>
+      </c>
+      <c r="C389" t="n">
+        <v>0</v>
+      </c>
+      <c r="D389" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>20082300</v>
+      </c>
+      <c r="B390" t="n">
+        <v>0</v>
+      </c>
+      <c r="C390" t="n">
+        <v>0</v>
+      </c>
+      <c r="D390" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>20082400</v>
+      </c>
+      <c r="B391" t="n">
+        <v>1621385000000</v>
+      </c>
+      <c r="C391" t="n">
+        <v>1627631000000</v>
+      </c>
+      <c r="D391" t="n">
+        <v>6246000000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/.idea/treasuryDelta.xlsx
+++ b/.idea/treasuryDelta.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D391"/>
+  <dimension ref="A1:D400"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5916,6 +5916,132 @@
         <v>6246000000</v>
       </c>
     </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>20082500</v>
+      </c>
+      <c r="B392" t="n">
+        <v>1627631000000</v>
+      </c>
+      <c r="C392" t="n">
+        <v>1629281000000</v>
+      </c>
+      <c r="D392" t="n">
+        <v>1650000000</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>20082600</v>
+      </c>
+      <c r="B393" t="n">
+        <v>1629281000000</v>
+      </c>
+      <c r="C393" t="n">
+        <v>1607449000000</v>
+      </c>
+      <c r="D393" t="n">
+        <v>-21832000000</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>20082700</v>
+      </c>
+      <c r="B394" t="n">
+        <v>1607449000000</v>
+      </c>
+      <c r="C394" t="n">
+        <v>1602817000000</v>
+      </c>
+      <c r="D394" t="n">
+        <v>-4632000000</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>20082800</v>
+      </c>
+      <c r="B395" t="n">
+        <v>1602817000000</v>
+      </c>
+      <c r="C395" t="n">
+        <v>1620187000000</v>
+      </c>
+      <c r="D395" t="n">
+        <v>17370000000</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>20082900</v>
+      </c>
+      <c r="B396" t="n">
+        <v>0</v>
+      </c>
+      <c r="C396" t="n">
+        <v>0</v>
+      </c>
+      <c r="D396" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>20083000</v>
+      </c>
+      <c r="B397" t="n">
+        <v>0</v>
+      </c>
+      <c r="C397" t="n">
+        <v>0</v>
+      </c>
+      <c r="D397" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>20083100</v>
+      </c>
+      <c r="B398" t="n">
+        <v>1620187000000</v>
+      </c>
+      <c r="C398" t="n">
+        <v>1705982000000</v>
+      </c>
+      <c r="D398" t="n">
+        <v>85795000000</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>20090100</v>
+      </c>
+      <c r="B399" t="n">
+        <v>1705982000000</v>
+      </c>
+      <c r="C399" t="n">
+        <v>1652933000000</v>
+      </c>
+      <c r="D399" t="n">
+        <v>-53049000000</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>20090200</v>
+      </c>
+      <c r="B400" t="n">
+        <v>1652933000000</v>
+      </c>
+      <c r="C400" t="n">
+        <v>1651823000000</v>
+      </c>
+      <c r="D400" t="n">
+        <v>-1110000000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
